--- a/WSC/Test Report/SLCM/WSC_SLCM_Counselling_Admit Card.xlsx
+++ b/WSC/Test Report/SLCM/WSC_SLCM_Counselling_Admit Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="293">
   <si>
     <t>Contents</t>
   </si>
@@ -206,12 +206,6 @@
     <t>The data should be saved successfully.</t>
   </si>
   <si>
-    <t>not showing any exam delcaration</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Step 5</t>
   </si>
   <si>
@@ -219,12 +213,6 @@
   </si>
   <si>
     <t>New Entrance Exam Declaration page is opened with all details being filled.</t>
-  </si>
-  <si>
-    <t>Not Able to Execute this step as it depends on prvious step</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
   </si>
   <si>
     <t>Step 6</t>
@@ -283,6 +271,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The Edu Admin can </t>
     </r>
     <r>
@@ -302,6 +297,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">The SLCM Trainer  can only  </t>
     </r>
     <r>
@@ -320,6 +322,9 @@
     <t>Not Showing that feature in that scree</t>
   </si>
   <si>
+    <t>Fail</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC2_Entrance Exam Admit Card
 </t>
   </si>
@@ -377,6 +382,9 @@
     <t>Not able to proceed as it depends on previous step</t>
   </si>
   <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
     <t>Click on "Entrance Exam" link.</t>
   </si>
   <si>
@@ -472,6 +480,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The SLCM Edu Admin can</t>
     </r>
     <r>
@@ -491,6 +506,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The SLCM Trainer have</t>
     </r>
     <r>
@@ -1103,10 +1125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1141,14 +1163,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1" tint="0.5"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1" tint="0.5"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1186,6 +1208,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1194,7 +1217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1202,6 +1225,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1228,13 +1258,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1271,6 +1294,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1300,14 +1330,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1322,7 +1344,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1349,13 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,7 +1383,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,19 +1395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1415,13 +1425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1433,19 +1443,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1457,31 +1455,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1511,6 +1485,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1518,6 +1498,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,7 +1521,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1689,17 +1705,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1753,6 +1765,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1775,21 +1802,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1798,38 +1820,32 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1847,92 +1863,92 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1979,10 +1995,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2006,18 +2019,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2042,10 +2046,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2072,30 +2082,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2111,9 +2109,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2138,40 +2133,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2543,31 +2514,31 @@
   </cols>
   <sheetData>
     <row r="2" ht="21" spans="2:2">
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="77" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" ht="88" customHeight="1" spans="1:12">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="78"/>
+      <c r="B4" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97" t="s">
+      <c r="C4" s="80"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="97" t="s">
+      <c r="J4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="100" t="s">
+      <c r="L4" s="85" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2577,25 +2548,25 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="98"/>
-      <c r="H5" s="98"/>
-      <c r="I5" s="98" t="s">
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="98" t="s">
+      <c r="J5" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="98" t="s">
+      <c r="K5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="98" t="s">
+      <c r="L5" s="83" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="99"/>
+      <c r="B6" s="84"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2613,510 +2584,477 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="22.2761904761905" style="63" customWidth="1"/>
-    <col min="2" max="2" width="90.8571428571429" style="63" customWidth="1"/>
-    <col min="3" max="3" width="55.5714285714286" style="63" customWidth="1"/>
-    <col min="4" max="4" width="36.1428571428571" style="63" customWidth="1"/>
-    <col min="5" max="5" width="23.8571428571429" style="63" customWidth="1"/>
-    <col min="6" max="6" width="10.8571428571429" style="63" customWidth="1"/>
-    <col min="7" max="7" width="11.2857142857143" style="63" customWidth="1"/>
-    <col min="8" max="16384" width="8.72380952380952" style="63"/>
+    <col min="1" max="1" width="22.2761904761905" style="58" customWidth="1"/>
+    <col min="2" max="2" width="90.8571428571429" style="58" customWidth="1"/>
+    <col min="3" max="3" width="55.5714285714286" style="58" customWidth="1"/>
+    <col min="4" max="4" width="36.1428571428571" style="58" customWidth="1"/>
+    <col min="5" max="5" width="23.8571428571429" style="58" customWidth="1"/>
+    <col min="6" max="6" width="10.8571428571429" style="58" customWidth="1"/>
+    <col min="7" max="7" width="11.2857142857143" style="58" customWidth="1"/>
+    <col min="8" max="16384" width="8.72380952380952" style="58"/>
   </cols>
   <sheetData>
     <row r="1" ht="45" spans="1:7">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="66"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="37"/>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" ht="45" spans="1:7">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="34" t="s">
+      <c r="B5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="67"/>
-      <c r="D5" s="34" t="s">
+      <c r="C5" s="61"/>
+      <c r="D5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="37">
+      <c r="A6" s="28">
         <v>1</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="37"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="29"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="37"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="72"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="37"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="37"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" ht="9" customHeight="1" spans="1:7">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
     </row>
     <row r="12" ht="30" spans="1:7">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="40" t="s">
+      <c r="D12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="75" t="s">
+      <c r="E12" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="75" t="s">
+      <c r="F12" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="75" t="s">
+      <c r="G12" s="68" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="60" customFormat="1" ht="14" customHeight="1" spans="1:7">
-      <c r="A13" s="76"/>
-      <c r="B13" s="43" t="s">
+    <row r="13" s="56" customFormat="1" ht="14" customHeight="1" spans="1:7">
+      <c r="A13" s="69"/>
+      <c r="B13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
     </row>
     <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="79" t="s">
+      <c r="E14" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="79" t="s">
+      <c r="E15" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="79" t="s">
+      <c r="E16" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
     </row>
     <row r="17" ht="61" customHeight="1" spans="1:7">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="28" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="80" t="s">
+      <c r="D17" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+    </row>
+    <row r="18" ht="31" customHeight="1" spans="1:7">
+      <c r="A18" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="B18" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="37">
-        <v>6</v>
-      </c>
-      <c r="G17" s="37"/>
-    </row>
-    <row r="18" ht="31" customHeight="1" spans="1:7">
-      <c r="A18" s="37" t="s">
+      <c r="C18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="D18" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+    </row>
+    <row r="19" ht="31" customHeight="1" spans="1:7">
+      <c r="A19" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="B19" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="D18" s="82" t="s">
+      <c r="C19" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="E18" s="83" t="s">
+      <c r="D19" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+    </row>
+    <row r="20" ht="125" customHeight="1" spans="1:7">
+      <c r="A20" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-    </row>
-    <row r="19" ht="31" customHeight="1" spans="1:7">
-      <c r="A19" s="37" t="s">
+      <c r="B20" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="C20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="D20" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+    </row>
+    <row r="21" ht="31" customHeight="1" spans="1:7">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="37"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" ht="125" customHeight="1" spans="1:7">
-      <c r="A20" s="37" t="s">
+      <c r="C21" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="D21" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+    </row>
+    <row r="22" ht="118" customHeight="1" spans="1:7">
+      <c r="A22" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C22" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" ht="31" customHeight="1" spans="1:7">
-      <c r="A21" s="37"/>
-      <c r="B21" s="29" t="s">
+      <c r="D22" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:7">
+      <c r="A23" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C23" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="37"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" ht="118" customHeight="1" spans="1:7">
-      <c r="A22" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="29" t="s">
+      <c r="D23" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" ht="29" customHeight="1" spans="1:7">
+      <c r="A24" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="C24" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" ht="36" customHeight="1" spans="1:7">
-      <c r="A23" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="50" t="s">
+      <c r="D24" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+    </row>
+    <row r="25" s="57" customFormat="1" ht="30" spans="1:7">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C25" s="72"/>
+      <c r="D25" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="F25" s="74" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" s="58" customFormat="1" spans="1:7">
+      <c r="A26" s="28"/>
+      <c r="B26" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="37"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" ht="29" customHeight="1" spans="1:7">
-      <c r="A24" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="50" t="s">
+      <c r="C26" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="D26" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+    </row>
+    <row r="27" s="58" customFormat="1" spans="1:7">
+      <c r="A27" s="28"/>
+      <c r="B27" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="37"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" s="61" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="84"/>
-      <c r="B25" s="85" t="s">
+      <c r="C27" s="48" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="F25" s="87" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="87" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" s="62" customFormat="1" ht="30" spans="1:7">
-      <c r="A26" s="29"/>
-      <c r="B26" s="88" t="s">
+      <c r="D27" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="E27" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="82" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-    </row>
-    <row r="27" s="62" customFormat="1" spans="1:7">
-      <c r="A27" s="29"/>
-      <c r="B27" s="88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F27" s="89">
+      <c r="F27" s="28">
         <v>7</v>
       </c>
-      <c r="G27" s="89"/>
-    </row>
-    <row r="28" s="62" customFormat="1" spans="1:4">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-    </row>
-    <row r="29" s="62" customFormat="1" spans="1:4">
-      <c r="A29" s="90"/>
-      <c r="B29" s="90"/>
-      <c r="C29" s="91"/>
-      <c r="D29" s="91"/>
-    </row>
-    <row r="30" s="62" customFormat="1" spans="1:4">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="91"/>
-      <c r="D30" s="91"/>
-    </row>
-    <row r="31" s="62" customFormat="1"/>
-    <row r="32" s="62" customFormat="1"/>
-    <row r="33" s="62" customFormat="1"/>
-    <row r="34" s="62" customFormat="1"/>
-    <row r="35" s="62" customFormat="1"/>
-    <row r="36" s="62" customFormat="1"/>
-    <row r="37" s="62" customFormat="1"/>
-    <row r="38" s="62" customFormat="1"/>
-    <row r="39" s="62" customFormat="1"/>
-    <row r="40" s="62" customFormat="1"/>
-    <row r="41" s="62" customFormat="1"/>
-    <row r="42" s="62" customFormat="1"/>
-    <row r="43" s="62" customFormat="1"/>
-    <row r="44" s="62" customFormat="1"/>
-    <row r="45" s="62" customFormat="1"/>
-    <row r="46" spans="2:3">
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
-    </row>
-    <row r="47" spans="2:3">
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-    </row>
-    <row r="48" spans="2:3">
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
-    </row>
-    <row r="49" spans="2:3">
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
-    </row>
-    <row r="50" spans="2:3">
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
-    </row>
-    <row r="51" spans="2:3">
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-    </row>
-    <row r="52" spans="2:3">
-      <c r="B52" s="62"/>
-      <c r="C52" s="62"/>
-    </row>
-    <row r="53" spans="2:3">
-      <c r="B53" s="62"/>
-      <c r="C53" s="62"/>
-    </row>
-    <row r="54" spans="2:3">
-      <c r="B54" s="62"/>
-      <c r="C54" s="62"/>
-    </row>
-    <row r="55" spans="2:3">
-      <c r="B55" s="62"/>
-      <c r="C55" s="62"/>
+      <c r="G27" s="28"/>
+    </row>
+    <row r="28" s="58" customFormat="1" spans="1:4">
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+    </row>
+    <row r="29" s="58" customFormat="1" spans="1:4">
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="76"/>
+    </row>
+    <row r="30" s="58" customFormat="1" spans="1:4">
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3135,8 +3073,8 @@
   <sheetPr/>
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3152,485 +3090,491 @@
   </cols>
   <sheetData>
     <row r="1" ht="45" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="1:7">
+      <c r="A6" s="32">
+        <v>1</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="32"/>
+      <c r="B7" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+    </row>
+    <row r="8" ht="105" spans="2:7">
+      <c r="B8" s="28"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="30" t="s">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="32"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:7">
+      <c r="A11" s="32"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A12" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-    </row>
-    <row r="6" ht="29" customHeight="1" spans="1:7">
-      <c r="A6" s="33">
-        <v>1</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33" t="s">
+      <c r="E12" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-    </row>
-    <row r="8" ht="105" spans="2:7">
-      <c r="B8" s="29"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="29" t="s">
+      <c r="G12" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" s="25" customFormat="1" ht="45" spans="1:7">
+      <c r="A13" s="38"/>
+      <c r="B13" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-    </row>
-    <row r="12" s="24" customFormat="1" ht="45" spans="1:7">
-      <c r="A12" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="40" t="s">
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" s="24" customFormat="1" spans="1:7">
+      <c r="A14" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="E12" s="41" t="s">
+      <c r="C14" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+    </row>
+    <row r="15" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A15" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D15" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="32">
+        <v>8</v>
+      </c>
+      <c r="G15" s="32"/>
+    </row>
+    <row r="16" s="24" customFormat="1" ht="150" spans="1:7">
+      <c r="A16" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+    </row>
+    <row r="17" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A17" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+    </row>
+    <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+    </row>
+    <row r="19" s="24" customFormat="1" spans="1:7">
+      <c r="A19" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+    </row>
+    <row r="20" s="24" customFormat="1" spans="1:7">
+      <c r="A20" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:7">
+      <c r="A21" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:7">
+      <c r="A22" s="32"/>
+      <c r="B22" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+    </row>
+    <row r="23" s="24" customFormat="1" spans="1:7">
+      <c r="A23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="135" spans="1:7">
+      <c r="A24" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="1:7">
+      <c r="A25" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+    </row>
+    <row r="26" s="24" customFormat="1" spans="1:7">
+      <c r="A26" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+    </row>
+    <row r="27" s="24" customFormat="1" spans="1:7">
+      <c r="A27" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+    </row>
+    <row r="28" s="24" customFormat="1" spans="1:7">
+      <c r="A28" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+    </row>
+    <row r="29" s="24" customFormat="1" spans="1:7">
+      <c r="A29" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+    </row>
+    <row r="30" s="26" customFormat="1" spans="1:7">
+      <c r="A30" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="50"/>
+      <c r="D30" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="41" t="s">
+      <c r="F30" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="42"/>
-      <c r="B13" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-    </row>
-    <row r="14" s="24" customFormat="1" spans="1:7">
-      <c r="A14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="29" t="s">
+    <row r="31" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A31" s="32"/>
+      <c r="B31" s="53" t="s">
+        <v>120</v>
+      </c>
+      <c r="C31" s="54" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-    </row>
-    <row r="15" s="24" customFormat="1" spans="1:7">
-      <c r="A15" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="33">
+      <c r="E31" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="32">
         <v>8</v>
       </c>
-      <c r="G15" s="33"/>
-    </row>
-    <row r="16" s="24" customFormat="1" ht="150" spans="1:7">
-      <c r="A16" s="33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-    </row>
-    <row r="17" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A17" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="47" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" s="47" t="s">
-        <v>98</v>
-      </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-    </row>
-    <row r="19" s="24" customFormat="1" spans="1:7">
-      <c r="A19" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" s="24" customFormat="1" spans="1:7">
-      <c r="A20" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="C20" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="1:7">
-      <c r="A21" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="C21" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" s="24" customFormat="1" spans="1:7">
-      <c r="A22" s="33"/>
-      <c r="B22" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-    </row>
-    <row r="23" s="24" customFormat="1" spans="1:7">
-      <c r="A23" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" s="24" customFormat="1" ht="135" spans="1:7">
-      <c r="A24" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-    </row>
-    <row r="25" s="24" customFormat="1" spans="1:7">
-      <c r="A25" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-    </row>
-    <row r="26" s="24" customFormat="1" spans="1:7">
-      <c r="A26" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B26" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-    </row>
-    <row r="27" s="24" customFormat="1" spans="1:7">
-      <c r="A27" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-    </row>
-    <row r="28" s="24" customFormat="1" spans="1:7">
-      <c r="A28" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="C28" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-    </row>
-    <row r="29" s="24" customFormat="1" spans="1:7">
-      <c r="A29" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="C29" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-    </row>
-    <row r="30" s="26" customFormat="1" spans="1:7">
-      <c r="A30" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="G30" s="54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" s="27" customFormat="1" spans="1:7">
-      <c r="A31" s="38"/>
-      <c r="B31" s="55" t="s">
+      <c r="G31" s="32"/>
+    </row>
+    <row r="32" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A32" s="32"/>
+      <c r="B32" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C32" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-    </row>
-    <row r="32" s="27" customFormat="1" ht="45" spans="1:7">
-      <c r="A32" s="38"/>
-      <c r="B32" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="C32" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="D32" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="F32" s="57">
+      <c r="D32" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="F32" s="32">
         <v>9</v>
       </c>
-      <c r="G32" s="57"/>
+      <c r="G32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3667,14 +3611,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3725,12 +3669,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3759,7 +3703,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3818,7 +3762,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -3831,11 +3775,11 @@
         <v>39</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3846,11 +3790,11 @@
         <v>44</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3861,11 +3805,11 @@
         <v>47</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3885,7 +3829,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -3895,14 +3839,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3910,14 +3854,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3925,14 +3869,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3940,14 +3884,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3956,7 +3900,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -3966,14 +3910,14 @@
     </row>
     <row r="24" ht="75" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3982,7 +3926,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -3992,14 +3936,14 @@
     </row>
     <row r="26" ht="60" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4007,14 +3951,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4022,14 +3966,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4037,10 +3981,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -4050,10 +3994,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -4064,7 +4008,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -4074,14 +4018,14 @@
     </row>
     <row r="32" ht="120" spans="1:7">
       <c r="A32" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4089,14 +4033,14 @@
     </row>
     <row r="33" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4104,14 +4048,14 @@
     </row>
     <row r="34" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4119,14 +4063,14 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4134,14 +4078,14 @@
     </row>
     <row r="36" ht="45" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4149,14 +4093,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4164,14 +4108,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4179,14 +4123,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4194,14 +4138,14 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4209,14 +4153,14 @@
     </row>
     <row r="41" ht="75" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4224,14 +4168,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4239,14 +4183,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4254,14 +4198,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4269,14 +4213,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4284,14 +4228,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4299,10 +4243,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -4312,14 +4256,14 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -4327,10 +4271,10 @@
     </row>
     <row r="49" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -4340,14 +4284,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -4355,10 +4299,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -4368,10 +4312,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -4381,10 +4325,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -4394,10 +4338,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -4417,7 +4361,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -4427,14 +4371,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4452,7 +4396,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -4462,14 +4406,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4477,14 +4421,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4492,14 +4436,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4507,31 +4451,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4539,14 +4483,14 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -4554,14 +4498,14 @@
     </row>
     <row r="66" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4569,14 +4513,14 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4584,14 +4528,14 @@
     </row>
     <row r="68" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4599,14 +4543,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4614,14 +4558,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4629,14 +4573,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4644,14 +4588,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -4659,14 +4603,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -4674,14 +4618,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -4689,14 +4633,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -4704,14 +4648,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4719,14 +4663,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4735,7 +4679,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4745,14 +4689,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -4760,14 +4704,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -4775,14 +4719,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/WSC/Test Report/SLCM/WSC_SLCM_Counselling_Admit Card.xlsx
+++ b/WSC/Test Report/SLCM/WSC_SLCM_Counselling_Admit Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="296">
   <si>
     <t>Contents</t>
   </si>
@@ -361,9 +361,6 @@
     <t>New Entrance Exam Admit Card page opens up.</t>
   </si>
   <si>
-    <t>Not showing the add option</t>
-  </si>
-  <si>
     <t>Enter the below details in the message box of New Project.
 - Entrance Exam 
 - Applicant ID
@@ -379,17 +376,14 @@
     <t>The data is saved successfully in "New Entrance Exam Admit Card" page.</t>
   </si>
   <si>
-    <t>Not able to proceed as it depends on previous step</t>
-  </si>
-  <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
     <t>Click on "Entrance Exam" link.</t>
   </si>
   <si>
     <t xml:space="preserve">The Link will open the "Entrance Exam Declaration" Page.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">By selecting ApplicationID respective data autofilled </t>
   </si>
   <si>
     <t xml:space="preserve">Click on "Department" link. </t>
@@ -461,6 +455,9 @@
     <t>An error must be thrown.</t>
   </si>
   <si>
+    <t>its taking end time before time of Start time</t>
+  </si>
+  <si>
     <t>Step 12</t>
   </si>
   <si>
@@ -471,6 +468,18 @@
   </si>
   <si>
     <t>Step 13</t>
+  </si>
+  <si>
+    <t>Enter past date in exam date</t>
+  </si>
+  <si>
+    <t>it should throw error message</t>
+  </si>
+  <si>
+    <t>exam date taking past Date</t>
+  </si>
+  <si>
+    <t>Step 14</t>
   </si>
   <si>
     <t>Enter the "Date of Exam" as today's date.</t>
@@ -500,6 +509,9 @@
       </rPr>
       <t xml:space="preserve"> Read Write Create Delete</t>
     </r>
+  </si>
+  <si>
+    <t>User able to submit the data  but user dont have permission to submit</t>
   </si>
   <si>
     <t>Login as SLCM  Trainer</t>
@@ -678,9 +690,6 @@
     <t>The Dashboard page will be diplayed.</t>
   </si>
   <si>
-    <t>Step 14</t>
-  </si>
-  <si>
     <t>Click on Kanban</t>
   </si>
   <si>
@@ -1126,11 +1135,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1169,13 +1178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="0.5"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="16"/>
       <color theme="1"/>
@@ -1208,7 +1210,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1216,8 +1217,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1225,13 +1242,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1261,6 +1271,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1285,31 +1309,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,8 +1331,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1371,7 +1373,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1391,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,13 +1421,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,13 +1469,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,61 +1511,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1503,12 +1535,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1521,37 +1547,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1707,11 +1709,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1758,193 +1788,165 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2046,23 +2048,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2082,6 +2081,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2148,23 +2150,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2586,7 +2588,7 @@
   <sheetPr/>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -2949,7 +2951,7 @@
       <c r="A23" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B23" s="48" t="s">
+      <c r="B23" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C23" s="28" t="s">
@@ -2968,7 +2970,7 @@
       <c r="A24" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="45" t="s">
         <v>68</v>
       </c>
       <c r="C24" s="28" t="s">
@@ -3007,7 +3009,7 @@
       <c r="B26" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="45" t="s">
         <v>72</v>
       </c>
       <c r="D26" s="28" t="s">
@@ -3024,13 +3026,13 @@
       <c r="B27" s="75" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="43" t="s">
+      <c r="D27" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="46" t="s">
         <v>76</v>
       </c>
       <c r="F27" s="28">
@@ -3071,10 +3073,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3284,7 +3286,7 @@
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
-    <row r="15" s="24" customFormat="1" ht="30" spans="1:7">
+    <row r="15" s="24" customFormat="1" spans="1:7">
       <c r="A15" s="32" t="s">
         <v>44</v>
       </c>
@@ -3294,15 +3296,13 @@
       <c r="C15" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D15" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E15" s="44" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="32">
-        <v>8</v>
-      </c>
+      <c r="D15" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
     <row r="16" s="24" customFormat="1" ht="150" spans="1:7">
@@ -3310,271 +3310,346 @@
         <v>47</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="D16" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+    </row>
+    <row r="17" s="24" customFormat="1" ht="60" spans="1:7">
       <c r="A17" s="32" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>94</v>
-      </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
+        <v>90</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
       <c r="A18" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
+        <v>93</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
     </row>
     <row r="19" s="24" customFormat="1" spans="1:7">
       <c r="A19" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
+        <v>95</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
     </row>
     <row r="20" s="24" customFormat="1" spans="1:7">
       <c r="A20" s="32" t="s">
         <v>59</v>
       </c>
       <c r="B20" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
+        <v>97</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
     </row>
     <row r="21" s="24" customFormat="1" spans="1:7">
       <c r="A21" s="32" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+        <v>99</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
     </row>
     <row r="22" s="24" customFormat="1" spans="1:7">
       <c r="A22" s="32"/>
       <c r="B22" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="D22" s="32"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
+        <v>101</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
     </row>
     <row r="23" s="24" customFormat="1" spans="1:7">
       <c r="A23" s="32" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
+        <v>104</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
     </row>
     <row r="24" s="24" customFormat="1" ht="135" spans="1:7">
       <c r="A24" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>106</v>
       </c>
       <c r="C24" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
+      <c r="D24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
     </row>
     <row r="25" s="24" customFormat="1" spans="1:7">
       <c r="A25" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>67</v>
       </c>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
+      <c r="D25" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" s="24" customFormat="1" spans="1:7">
       <c r="A26" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B26" s="48" t="s">
-        <v>111</v>
+        <v>108</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>109</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-    </row>
-    <row r="27" s="24" customFormat="1" spans="1:7">
+      <c r="D26" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+    </row>
+    <row r="27" s="24" customFormat="1" ht="60" spans="1:7">
       <c r="A27" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="B27" s="28" t="s">
+      <c r="D27" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
+      <c r="E27" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F27" s="44">
+        <v>8</v>
+      </c>
+      <c r="G27" s="44"/>
     </row>
     <row r="28" s="24" customFormat="1" spans="1:7">
       <c r="A28" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="28" t="s">
         <v>115</v>
       </c>
-      <c r="B28" s="28" t="s">
+      <c r="C28" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="D28" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+    </row>
+    <row r="29" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A29" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-    </row>
-    <row r="29" s="24" customFormat="1" spans="1:7">
-      <c r="A29" s="32" t="s">
+      <c r="B29" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="C29" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-    </row>
-    <row r="30" s="26" customFormat="1" spans="1:7">
-      <c r="A30" s="49" t="s">
+      <c r="D29" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="E29" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="F29" s="44">
+        <v>16</v>
+      </c>
+      <c r="G29" s="44"/>
+    </row>
+    <row r="30" s="24" customFormat="1" spans="1:7">
+      <c r="A30" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="C30" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+    </row>
+    <row r="31" s="26" customFormat="1" spans="1:7">
+      <c r="A31" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B31" s="48" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="51" t="s">
+      <c r="C31" s="49"/>
+      <c r="D31" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="E30" s="52" t="s">
+      <c r="E31" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="52" t="s">
+      <c r="F31" s="51" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A31" s="32"/>
-      <c r="B31" s="53" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" s="43" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" s="44" t="s">
+    <row r="32" s="24" customFormat="1" ht="90" spans="1:7">
+      <c r="A32" s="32"/>
+      <c r="B32" s="52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="E32" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="32">
-        <v>8</v>
-      </c>
-      <c r="G31" s="32"/>
-    </row>
-    <row r="32" s="24" customFormat="1" ht="45" spans="1:7">
-      <c r="A32" s="32"/>
-      <c r="B32" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="43" t="s">
+      <c r="F32" s="32">
+        <v>17</v>
+      </c>
+      <c r="G32" s="32"/>
+    </row>
+    <row r="33" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A33" s="32"/>
+      <c r="B33" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D33" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="E32" s="43" t="s">
+      <c r="E33" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F33" s="32">
         <v>9</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G33" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3611,14 +3686,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3669,12 +3744,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3703,7 +3778,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3762,7 +3837,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -3775,11 +3850,11 @@
         <v>39</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3790,11 +3865,11 @@
         <v>44</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3805,11 +3880,11 @@
         <v>47</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3829,7 +3904,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -3842,11 +3917,11 @@
         <v>56</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3857,11 +3932,11 @@
         <v>59</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3869,14 +3944,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3884,14 +3959,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3900,7 +3975,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -3910,14 +3985,14 @@
     </row>
     <row r="24" ht="75" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -3926,7 +4001,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -3936,14 +4011,14 @@
     </row>
     <row r="26" ht="60" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -3951,14 +4026,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -3966,14 +4041,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -3981,10 +4056,10 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>155</v>
+        <v>121</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="9"/>
@@ -3994,10 +4069,10 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="9"/>
@@ -4008,7 +4083,7 @@
     <row r="31" spans="1:7">
       <c r="A31" s="15"/>
       <c r="B31" s="20" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="9"/>
@@ -4018,14 +4093,14 @@
     </row>
     <row r="32" ht="120" spans="1:7">
       <c r="A32" s="15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -4033,14 +4108,14 @@
     </row>
     <row r="33" ht="30" spans="1:7">
       <c r="A33" s="3" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -4048,14 +4123,14 @@
     </row>
     <row r="34" ht="30" spans="1:7">
       <c r="A34" s="3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="19" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -4063,14 +4138,14 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -4078,14 +4153,14 @@
     </row>
     <row r="36" ht="45" spans="1:7">
       <c r="A36" s="3" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="9" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -4093,14 +4168,14 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -4108,14 +4183,14 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -4123,14 +4198,14 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="9" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -4138,14 +4213,14 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -4153,14 +4228,14 @@
     </row>
     <row r="41" ht="75" spans="1:7">
       <c r="A41" s="3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="9" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -4168,14 +4243,14 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="9" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -4183,14 +4258,14 @@
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
@@ -4198,14 +4273,14 @@
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="9" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
@@ -4213,14 +4288,14 @@
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -4228,14 +4303,14 @@
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -4243,10 +4318,10 @@
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="9"/>
@@ -4256,14 +4331,14 @@
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -4271,10 +4346,10 @@
     </row>
     <row r="49" ht="30" spans="1:7">
       <c r="A49" s="3" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="9"/>
@@ -4284,14 +4359,14 @@
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="9" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -4299,10 +4374,10 @@
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="9"/>
@@ -4312,10 +4387,10 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="9"/>
@@ -4325,10 +4400,10 @@
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="9"/>
@@ -4338,10 +4413,10 @@
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="9"/>
@@ -4361,7 +4436,7 @@
     <row r="56" spans="1:7">
       <c r="A56" s="3"/>
       <c r="B56" s="20" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="9"/>
@@ -4371,14 +4446,14 @@
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="9" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -4396,7 +4471,7 @@
     <row r="59" spans="1:7">
       <c r="A59" s="3"/>
       <c r="B59" s="20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="9"/>
@@ -4406,14 +4481,14 @@
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="9" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -4421,14 +4496,14 @@
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -4436,14 +4511,14 @@
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -4451,31 +4526,31 @@
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="3" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="9" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="9" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -4483,14 +4558,14 @@
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="9" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -4498,14 +4573,14 @@
     </row>
     <row r="66" ht="45" spans="1:7">
       <c r="A66" s="3" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="9" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -4513,14 +4588,14 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="3" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
@@ -4528,14 +4603,14 @@
     </row>
     <row r="68" ht="165" spans="1:7">
       <c r="A68" s="3" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="19" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
@@ -4543,14 +4618,14 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="9" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -4558,14 +4633,14 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="3" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -4573,14 +4648,14 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="3" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -4588,14 +4663,14 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="9" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="9"/>
@@ -4603,14 +4678,14 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="3" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="9"/>
@@ -4618,14 +4693,14 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="9"/>
@@ -4633,14 +4708,14 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="9"/>
@@ -4648,14 +4723,14 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4663,14 +4738,14 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4679,7 +4754,7 @@
     <row r="78" spans="1:7">
       <c r="A78" s="3"/>
       <c r="B78" s="22" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -4689,14 +4764,14 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="3" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="E79" s="23"/>
       <c r="F79" s="3"/>
@@ -4704,14 +4779,14 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" s="3" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="E80" s="23"/>
       <c r="F80" s="3"/>
@@ -4719,14 +4794,14 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/WSC/Test Report/SLCM/WSC_SLCM_Counselling_Admit Card.xlsx
+++ b/WSC/Test Report/SLCM/WSC_SLCM_Counselling_Admit Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12495" tabRatio="599" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12330" tabRatio="599" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Contents" sheetId="6" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="296">
   <si>
     <t>Contents</t>
   </si>
@@ -109,25 +109,22 @@
     <t>Pre-requisite</t>
   </si>
   <si>
-    <t>Url :https://wscdemo.eduleadonline.com/#login</t>
-  </si>
-  <si>
     <t>Test Data</t>
   </si>
   <si>
     <t xml:space="preserve">User should be able to login to WSC </t>
   </si>
   <si>
-    <t xml:space="preserve">Edu Admin :eduadmin@gmail.com
-Password : erp@123
-Trainer : trainer@test.com
-Password : admin@123
-Student :student@test.com
-Password : admin@123
+    <t>Url :https://wscdemo.eduleadonline.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Different user credentials should be used :- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edu Admin :eduadmin@gmail.com,     Pass : erp@123
+Trainer : trainer@test.com,  Pass : erp@123
+Student :student@gmail.com,    Password : erp@123
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Different user credentials should be used :- </t>
   </si>
   <si>
     <t>Test Scenario</t>
@@ -161,9 +158,6 @@
 </t>
   </si>
   <si>
-    <t>Step 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Click on Home &gt; Admission &gt; Admit Card &gt;  Entrance Exam Admit Card Tool
 </t>
   </si>
@@ -177,25 +171,16 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>Step 2</t>
-  </si>
-  <si>
     <t>Check the "Entrance Exam Admit Card Tool" page.</t>
   </si>
   <si>
     <t>New Entrance Exam Admit Card Tool opens up.</t>
   </si>
   <si>
-    <t>Step 3</t>
-  </si>
-  <si>
     <t>Click on "+ Add Entrance Exam Admit Card Tool" page.</t>
   </si>
   <si>
     <t xml:space="preserve">New Entrance Exam Admit Card Tool opens up. </t>
-  </si>
-  <si>
-    <t>Step 4</t>
   </si>
   <si>
     <t>Enter the below details in the New Entrance Exam Declaration Page.
@@ -206,25 +191,16 @@
     <t>The data should be saved successfully.</t>
   </si>
   <si>
-    <t>Step 5</t>
-  </si>
-  <si>
     <t>Click on "Entrance Exam Declaration" and click on Create a New Entrance Exam Declaration .</t>
   </si>
   <si>
     <t>New Entrance Exam Declaration page is opened with all details being filled.</t>
   </si>
   <si>
-    <t>Step 6</t>
-  </si>
-  <si>
     <t>Click on "Get Applicants".</t>
   </si>
   <si>
     <t>The the applicants list should be filled.</t>
-  </si>
-  <si>
-    <t>Step 7</t>
   </si>
   <si>
     <t>Enter data in below the "DeAllotted Applicant List" table. 
@@ -423,9 +399,6 @@
     <t>The error message must be shown.</t>
   </si>
   <si>
-    <t>Step 8</t>
-  </si>
-  <si>
     <t>Enter data in below the "Exam Center Details"section. 
 - Venue
 - Address
@@ -437,18 +410,9 @@
 - Date of Exam</t>
   </si>
   <si>
-    <t>Step 9</t>
-  </si>
-  <si>
-    <t>Step 10</t>
-  </si>
-  <si>
     <t>Click on the Link "".</t>
   </si>
   <si>
-    <t>Step 11</t>
-  </si>
-  <si>
     <t>Enter Exam End Time before Exam Start Time.</t>
   </si>
   <si>
@@ -458,18 +422,12 @@
     <t>its taking end time before time of Start time</t>
   </si>
   <si>
-    <t>Step 12</t>
-  </si>
-  <si>
     <t>Enter Exam Start Time before Exam End Time.</t>
   </si>
   <si>
     <t>The dates must be saved successfully.</t>
   </si>
   <si>
-    <t>Step 13</t>
-  </si>
-  <si>
     <t>Enter past date in exam date</t>
   </si>
   <si>
@@ -477,9 +435,6 @@
   </si>
   <si>
     <t>exam date taking past Date</t>
-  </si>
-  <si>
-    <t>Step 14</t>
   </si>
   <si>
     <t>Enter the "Date of Exam" as today's date.</t>
@@ -540,6 +495,9 @@
     </r>
   </si>
   <si>
+    <t>Not Showing that feature in that screen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Generic </t>
   </si>
   <si>
@@ -556,6 +514,9 @@
   </si>
   <si>
     <t>LIST View</t>
+  </si>
+  <si>
+    <t>Step 1</t>
   </si>
   <si>
     <r>
@@ -584,39 +545,60 @@
     <t>The Company page opens with list of Compnay.</t>
   </si>
   <si>
+    <t>Step 2</t>
+  </si>
+  <si>
     <t>Click on one of the Company Name.</t>
   </si>
   <si>
     <t>It will show the details of Company.</t>
   </si>
   <si>
+    <t>Step 3</t>
+  </si>
+  <si>
     <t>User can make changes in Company and click on Save.</t>
   </si>
   <si>
     <t>The changes will be saved.</t>
   </si>
   <si>
+    <t>Step 4</t>
+  </si>
+  <si>
     <t>Fliter Button</t>
   </si>
   <si>
+    <t>Step 6</t>
+  </si>
+  <si>
     <t>Click on Filter button in the right side corner.</t>
   </si>
   <si>
     <t>It will show the pop box with "ID equals " option.</t>
   </si>
   <si>
+    <t>Step 7</t>
+  </si>
+  <si>
     <t>Enter Id in the last text box in the message box and click on "Apply Filter"button</t>
   </si>
   <si>
     <t>The data will be filtered and shown in List view as per the data entered.</t>
   </si>
   <si>
+    <t>Step 8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on "+ Add Filter" </t>
   </si>
   <si>
     <t>User can Add Filter if not added or can add another filter option if already added.</t>
   </si>
   <si>
+    <t>Step 9</t>
+  </si>
+  <si>
     <t xml:space="preserve">Click on "Clear Filter" </t>
   </si>
   <si>
@@ -624,6 +606,9 @@
   </si>
   <si>
     <t>Last Updated on</t>
+  </si>
+  <si>
+    <t>Step 10</t>
   </si>
   <si>
     <r>
@@ -669,6 +654,9 @@
     <t>List View Button</t>
   </si>
   <si>
+    <t>Step 11</t>
+  </si>
+  <si>
     <t>Click on the List View Button on the left of "Add salary Component" tab.</t>
   </si>
   <si>
@@ -678,16 +666,25 @@
 - kanban</t>
   </si>
   <si>
+    <t>Step 12</t>
+  </si>
+  <si>
     <t>Click on Report</t>
   </si>
   <si>
     <t>The report page of the Salary Component will be dispalyed.</t>
   </si>
   <si>
+    <t>Step 13</t>
+  </si>
+  <si>
     <t>Click on Dashboard</t>
   </si>
   <si>
     <t>The Dashboard page will be diplayed.</t>
+  </si>
+  <si>
+    <t>Step 14</t>
   </si>
   <si>
     <t>Click on Kanban</t>
@@ -1132,14 +1129,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,6 +1176,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1210,43 +1215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1255,31 +1223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1309,8 +1254,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,6 +1288,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1340,7 +1317,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1373,25 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1403,25 +1390,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,79 +1432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1535,6 +1456,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1553,12 +1480,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1625,6 +1630,19 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -1635,12 +1653,8 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right/>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -1648,6 +1662,15 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -1668,41 +1691,25 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1764,30 +1771,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1807,7 +1790,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1816,137 +1805,131 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2021,8 +2004,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2030,9 +2013,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2045,13 +2025,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2060,7 +2040,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,7 +2052,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2081,12 +2061,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2102,122 +2085,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="7" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2586,13 +2569,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.2761904761905" style="58" customWidth="1"/>
     <col min="2" max="2" width="90.8571428571429" style="58" customWidth="1"/>
@@ -2621,7 +2604,7 @@
       <c r="F1" s="59"/>
       <c r="G1" s="60"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2" s="33" t="s">
         <v>15</v>
       </c>
@@ -2632,11 +2615,8 @@
         <v>17</v>
       </c>
       <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
@@ -2649,100 +2629,66 @@
       <c r="D3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
       <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-    </row>
-    <row r="5" ht="45" spans="1:7">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="33" t="s">
+      <c r="C5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="28">
         <v>1</v>
       </c>
       <c r="B6" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="62" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" ht="48" customHeight="1" spans="1:3">
       <c r="A7" s="28"/>
       <c r="B7" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="2:7">
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="65"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="C8" s="61"/>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="C9" s="61"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="28"/>
-    </row>
-    <row r="11" ht="9" customHeight="1" spans="1:7">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
+      <c r="C10" s="61"/>
+    </row>
+    <row r="11" ht="9" customHeight="1" spans="1:3">
+      <c r="A11" s="61"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="62"/>
     </row>
     <row r="12" ht="30" spans="1:7">
       <c r="A12" s="36" t="s">
@@ -2757,283 +2703,309 @@
       <c r="D12" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="68" t="s">
+      <c r="E12" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="68" t="s">
+      <c r="F12" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="63" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" s="56" customFormat="1" ht="14" customHeight="1" spans="1:7">
-      <c r="A13" s="69"/>
-      <c r="B13" s="39" t="s">
+      <c r="A13" s="64"/>
+      <c r="B13" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
     </row>
     <row r="14" ht="30" spans="1:7">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="68">
+        <v>1</v>
+      </c>
+      <c r="B14" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="C14" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="D14" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="29" t="s">
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="68">
+        <v>2</v>
+      </c>
+      <c r="B15" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="28" t="s">
+      <c r="C15" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="D15" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="68">
+        <v>3</v>
+      </c>
+      <c r="B16" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D16" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="28" t="s">
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+    </row>
+    <row r="17" ht="61" customHeight="1" spans="1:7">
+      <c r="A17" s="68">
+        <v>4</v>
+      </c>
+      <c r="B17" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="C17" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="D17" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+    </row>
+    <row r="18" ht="31" customHeight="1" spans="1:7">
+      <c r="A18" s="68">
+        <v>5</v>
+      </c>
+      <c r="B18" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="C18" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-    </row>
-    <row r="17" ht="61" customHeight="1" spans="1:7">
-      <c r="A17" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+    </row>
+    <row r="19" ht="31" customHeight="1" spans="1:7">
+      <c r="A19" s="68">
+        <v>6</v>
+      </c>
+      <c r="B19" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="28" t="s">
+      <c r="C19" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D19" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E17" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-    </row>
-    <row r="18" ht="31" customHeight="1" spans="1:7">
-      <c r="A18" s="28" t="s">
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+    </row>
+    <row r="20" ht="125" customHeight="1" spans="1:7">
+      <c r="A20" s="68">
+        <v>7</v>
+      </c>
+      <c r="B20" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="C20" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="28" t="s">
+      <c r="D20" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+    </row>
+    <row r="21" ht="31" customHeight="1" spans="1:7">
+      <c r="A21" s="68">
+        <v>8</v>
+      </c>
+      <c r="B21" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="C21" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-    </row>
-    <row r="19" ht="31" customHeight="1" spans="1:7">
-      <c r="A19" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="28" t="s">
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+    </row>
+    <row r="22" ht="118" customHeight="1" spans="1:7">
+      <c r="A22" s="68">
+        <v>9</v>
+      </c>
+      <c r="B22" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C22" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D22" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-    </row>
-    <row r="20" ht="125" customHeight="1" spans="1:7">
-      <c r="A20" s="28" t="s">
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+    </row>
+    <row r="23" ht="36" customHeight="1" spans="1:7">
+      <c r="A23" s="68">
+        <v>10</v>
+      </c>
+      <c r="B23" s="70" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="C23" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="28" t="s">
+      <c r="D23" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="69" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+    </row>
+    <row r="24" ht="29" customHeight="1" spans="1:7">
+      <c r="A24" s="68">
+        <v>11</v>
+      </c>
+      <c r="B24" s="70" t="s">
         <v>61</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="C24" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-    </row>
-    <row r="21" ht="31" customHeight="1" spans="1:7">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="28" t="s">
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+    </row>
+    <row r="25" s="57" customFormat="1" ht="30" spans="1:31">
+      <c r="A25" s="28"/>
+      <c r="B25" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-    </row>
-    <row r="22" ht="118" customHeight="1" spans="1:7">
-      <c r="A22" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-    </row>
-    <row r="23" ht="36" customHeight="1" spans="1:7">
-      <c r="A23" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-    </row>
-    <row r="24" ht="29" customHeight="1" spans="1:7">
-      <c r="A24" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-    </row>
-    <row r="25" s="57" customFormat="1" ht="30" spans="1:7">
-      <c r="A25" s="72"/>
-      <c r="B25" s="73" t="s">
-        <v>70</v>
-      </c>
       <c r="C25" s="72"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="74" t="s">
+      <c r="E25" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F25" s="74" t="s">
+      <c r="F25" s="73" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="74" t="s">
+      <c r="G25" s="73" t="s">
         <v>37</v>
       </c>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="58"/>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="58"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="58"/>
+      <c r="S25" s="58"/>
+      <c r="T25" s="58"/>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="58"/>
+      <c r="X25" s="58"/>
+      <c r="Y25" s="58"/>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="58"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="58"/>
+      <c r="AE25" s="58"/>
     </row>
     <row r="26" s="58" customFormat="1" spans="1:7">
       <c r="A26" s="28"/>
-      <c r="B26" s="75" t="s">
-        <v>71</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>72</v>
+      <c r="B26" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>65</v>
       </c>
       <c r="D26" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="75" t="s">
         <v>42</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>43</v>
       </c>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
     </row>
     <row r="27" s="58" customFormat="1" spans="1:7">
       <c r="A27" s="28"/>
-      <c r="B27" s="75" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="E27" s="46" t="s">
-        <v>76</v>
+      <c r="B27" s="74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="28">
         <v>7</v>
@@ -3059,10 +3031,9 @@
       <c r="D30" s="76"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="D1:G1"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D6:E10"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -3075,8 +3046,8 @@
   <sheetPr/>
   <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72380952380952" defaultRowHeight="15" outlineLevelCol="6"/>
@@ -3096,19 +3067,19 @@
         <v>11</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C1" s="27" t="s">
         <v>13</v>
       </c>
       <c r="D1" s="29" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E1" s="30"/>
       <c r="F1" s="30"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:4">
       <c r="A2" s="27" t="s">
         <v>15</v>
       </c>
@@ -3119,11 +3090,8 @@
         <v>17</v>
       </c>
       <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="33" t="s">
         <v>18</v>
       </c>
@@ -3136,102 +3104,65 @@
       <c r="D3" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="32"/>
       <c r="B4" s="32"/>
       <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="27" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" ht="29" customHeight="1" spans="1:7">
+      <c r="C5" s="33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" ht="29" customHeight="1" spans="1:3">
       <c r="A6" s="32">
         <v>1</v>
       </c>
       <c r="B6" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" ht="60" spans="1:3">
       <c r="A7" s="32"/>
       <c r="B7" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" ht="105" spans="2:7">
+        <v>72</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
       <c r="B8" s="28"/>
       <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:7">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="27" t="s">
         <v>29</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="32"/>
       <c r="B10" s="32"/>
       <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" s="24" customFormat="1" spans="1:7">
+    </row>
+    <row r="11" s="24" customFormat="1" spans="1:3">
       <c r="A11" s="32"/>
       <c r="B11" s="32"/>
       <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
     </row>
     <row r="12" s="24" customFormat="1" ht="45" spans="1:7">
       <c r="A12" s="35" t="s">
@@ -3244,388 +3175,388 @@
         <v>33</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="G12" s="37" t="s">
+      <c r="F12" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="27" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" s="25" customFormat="1" ht="45" spans="1:7">
-      <c r="A13" s="38"/>
-      <c r="B13" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
+      <c r="A13" s="37"/>
+      <c r="B13" s="38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" s="24" customFormat="1" spans="1:7">
-      <c r="A14" s="32" t="s">
-        <v>39</v>
+      <c r="A14" s="32">
+        <v>1</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D14" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>43</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="32"/>
     </row>
     <row r="15" s="24" customFormat="1" spans="1:7">
-      <c r="A15" s="32" t="s">
-        <v>44</v>
+      <c r="A15" s="32">
+        <v>2</v>
       </c>
       <c r="B15" s="28" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D15" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="41" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>43</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="32"/>
     </row>
     <row r="16" s="24" customFormat="1" ht="150" spans="1:7">
-      <c r="A16" s="32" t="s">
-        <v>47</v>
+      <c r="A16" s="32">
+        <v>3</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+    </row>
+    <row r="17" s="24" customFormat="1" ht="60" spans="1:7">
+      <c r="A17" s="32">
+        <v>4</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+    </row>
+    <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
+      <c r="A18" s="32">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+    </row>
+    <row r="19" s="24" customFormat="1" spans="1:7">
+      <c r="A19" s="32">
+        <v>6</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>88</v>
       </c>
-      <c r="C16" s="43" t="s">
+      <c r="C19" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D19" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-    </row>
-    <row r="17" s="24" customFormat="1" ht="60" spans="1:7">
-      <c r="A17" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="28" t="s">
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+    </row>
+    <row r="20" s="24" customFormat="1" spans="1:7">
+      <c r="A20" s="32">
+        <v>7</v>
+      </c>
+      <c r="B20" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="43" t="s">
+      <c r="C20" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D20" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" s="24" customFormat="1" spans="1:7">
+      <c r="A21" s="32">
+        <v>8</v>
+      </c>
+      <c r="B21" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-    </row>
-    <row r="18" s="24" customFormat="1" ht="30" spans="1:7">
-      <c r="A18" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="C21" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="D21" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+    </row>
+    <row r="22" s="24" customFormat="1" spans="1:7">
+      <c r="A22" s="32">
+        <v>9</v>
+      </c>
+      <c r="B22" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="C22" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-    </row>
-    <row r="19" s="24" customFormat="1" spans="1:7">
-      <c r="A19" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="C19" s="43" t="s">
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+    </row>
+    <row r="23" s="24" customFormat="1" spans="1:7">
+      <c r="A23" s="32">
+        <v>10</v>
+      </c>
+      <c r="B23" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="C23" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-    </row>
-    <row r="20" s="24" customFormat="1" spans="1:7">
-      <c r="A20" s="32" t="s">
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+    </row>
+    <row r="24" s="24" customFormat="1" ht="135" spans="1:7">
+      <c r="A24" s="32">
+        <v>11</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+    </row>
+    <row r="25" s="24" customFormat="1" spans="1:7">
+      <c r="A25" s="32">
+        <v>12</v>
+      </c>
+      <c r="B25" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="32" t="s">
+      <c r="C25" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E20" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-    </row>
-    <row r="21" s="24" customFormat="1" spans="1:7">
-      <c r="A21" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="28" t="s">
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" s="24" customFormat="1" spans="1:7">
+      <c r="A26" s="32">
+        <v>13</v>
+      </c>
+      <c r="B26" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C26" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" s="24" customFormat="1" ht="60" spans="1:7">
+      <c r="A27" s="32">
+        <v>14</v>
+      </c>
+      <c r="B27" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="C27" s="42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="43">
+        <v>8</v>
+      </c>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" s="24" customFormat="1" spans="1:7">
+      <c r="A28" s="32">
+        <v>15</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-    </row>
-    <row r="22" s="24" customFormat="1" spans="1:7">
-      <c r="A22" s="32"/>
-      <c r="B22" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="32" t="s">
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" s="24" customFormat="1" ht="45" spans="1:7">
+      <c r="A29" s="32">
+        <v>16</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="43">
+        <v>16</v>
+      </c>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" s="24" customFormat="1" spans="1:7">
+      <c r="A30" s="32">
+        <v>17</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-    </row>
-    <row r="23" s="24" customFormat="1" spans="1:7">
-      <c r="A23" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-    </row>
-    <row r="24" s="24" customFormat="1" ht="135" spans="1:7">
-      <c r="A24" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-    </row>
-    <row r="25" s="24" customFormat="1" spans="1:7">
-      <c r="A25" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-    </row>
-    <row r="26" s="24" customFormat="1" spans="1:7">
-      <c r="A26" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-    </row>
-    <row r="27" s="24" customFormat="1" ht="60" spans="1:7">
-      <c r="A27" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="43" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="E27" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F27" s="44">
-        <v>8</v>
-      </c>
-      <c r="G27" s="44"/>
-    </row>
-    <row r="28" s="24" customFormat="1" spans="1:7">
-      <c r="A28" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="C28" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-    </row>
-    <row r="29" s="24" customFormat="1" ht="45" spans="1:7">
-      <c r="A29" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="43" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="E29" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="44">
-        <v>16</v>
-      </c>
-      <c r="G29" s="44"/>
-    </row>
-    <row r="30" s="24" customFormat="1" spans="1:7">
-      <c r="A30" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" s="26" customFormat="1" spans="1:7">
-      <c r="A31" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B31" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="50" t="s">
+      <c r="A31" s="32"/>
+      <c r="B31" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="51" t="s">
+      <c r="E31" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="51" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="51" t="s">
+      <c r="F31" s="50" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="50" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="32" s="24" customFormat="1" ht="90" spans="1:7">
       <c r="A32" s="32"/>
-      <c r="B32" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="53" t="s">
-        <v>124</v>
-      </c>
-      <c r="D32" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="E32" s="54" t="s">
-        <v>76</v>
+      <c r="B32" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>69</v>
       </c>
       <c r="F32" s="32">
         <v>17</v>
@@ -3634,17 +3565,17 @@
     </row>
     <row r="33" s="24" customFormat="1" ht="45" spans="1:7">
       <c r="A33" s="32"/>
-      <c r="B33" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="C33" s="53" t="s">
-        <v>127</v>
-      </c>
-      <c r="D33" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="E33" s="46" t="s">
-        <v>76</v>
+      <c r="B33" s="54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="55" t="s">
+        <v>69</v>
       </c>
       <c r="F33" s="32">
         <v>9</v>
@@ -3686,14 +3617,14 @@
         <v>11</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -3734,7 +3665,7 @@
         <v>22</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -3744,12 +3675,12 @@
         <v>1</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C5" s="3"/>
       <c r="E5" s="9"/>
       <c r="F5" s="3" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -3778,7 +3709,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -3825,7 +3756,7 @@
         <v>32</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>33</v>
@@ -3837,7 +3768,7 @@
     <row r="13" s="1" customFormat="1" spans="1:7">
       <c r="A13" s="12"/>
       <c r="B13" s="13" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
@@ -3847,14 +3778,14 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
-        <v>39</v>
+        <v>121</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -3862,14 +3793,14 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="17" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -3877,14 +3808,14 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="9" t="s">
-        <v>47</v>
+        <v>127</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="17" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -3892,7 +3823,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="9" t="s">
-        <v>50</v>
+        <v>130</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="14"/>
@@ -3904,7 +3835,7 @@
     <row r="18" spans="1:7">
       <c r="A18" s="9"/>
       <c r="B18" s="13" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="12"/>
@@ -3914,14 +3845,14 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="9" t="s">
-        <v>56</v>
+        <v>132</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="17" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -3929,14 +3860,14 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="9" t="s">
-        <v>59</v>
+        <v>135</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="17" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -3944,14 +3875,14 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="9" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -3959,14 +3890,14 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="9" t="s">
-        <v>107</v>
+        <v>141</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -3975,7 +3906,7 @@
     <row r="23" spans="1:7">
       <c r="A23" s="9"/>
       <c r="B23" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="9"/>
@@ -3985,14 +3916,14 @@
     </row>
     <row r="24" ht="75" spans="1:7">
       <c r="A24" s="9" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="9" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -4001,7 +3932,7 @@
     <row r="25" spans="1:7">
       <c r="A25" s="9"/>
       <c r="B25" s="13" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="9"/>
@@ -4011,14 +3942,14 @@
     </row>
     <row r="26" ht="60" spans="1:7">
       <c r="A26" s="9" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="19" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -4026,14 +3957,14 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="9" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -4041,14 +3972,14 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="9" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -4056,7 +3987,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="9" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="B29" s="15" t="s">
         <v>159</v>
